--- a/website/static/excel/template.xlsx
+++ b/website/static/excel/template.xlsx
@@ -1,44 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berfinyuksel/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boran\OneDrive\Belgeler\GitHub\sahaatar\website\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3EFF5FA-248F-BA42-A3AF-8A06DFAC238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C9CED6-FE71-4986-8312-4AC471D02799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{96CD2EB1-2674-F44A-9162-C70C16183876}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>wert</t>
+    <t>home_team</t>
+  </si>
+  <si>
+    <t>away_team</t>
+  </si>
+  <si>
+    <t>League_name</t>
   </si>
 </sst>
 </file>
@@ -47,19 +42,25 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,8 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,7 +115,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -122,7 +127,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -139,7 +144,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -169,29 +174,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -221,23 +209,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,19 +360,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98F485F-29F7-E549-82A8-D26A25EA16D1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="8Sqseuda0AFsHp4/EzoVW4IfHi7TPzQ474LfC8/E3rppLGCf9W+hk7S3PigkHNiEt9mtk7AcCqF7OXzQctiIJw==" saltValue="3QAYCsg1hxtQsUpBN02qRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>